--- a/TUFE_Konfigurasyon.xlsx
+++ b/TUFE_Konfigurasyon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\vb41981\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCCFD2C0-7B9E-4673-96EB-6198EFD51B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C880BEE3-42ED-444C-B68B-264BAAF0ED1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20052" yWindow="-420" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Madde_Sepeti" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3219" uniqueCount="1244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3219" uniqueCount="1245">
   <si>
     <t>Kod</t>
   </si>
@@ -3770,6 +3770,9 @@
   </si>
   <si>
     <t>&lt;td&gt;40 TL&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -4198,13 +4201,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:I408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H280" sqref="H280"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H201" sqref="H201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4244,7 +4247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4264,7 +4267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4284,7 +4287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -4304,7 +4307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -4324,7 +4327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -4364,7 +4367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -4384,7 +4387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -4404,7 +4407,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -4424,7 +4427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -4444,7 +4447,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -4464,7 +4467,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -4504,7 +4507,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -4524,7 +4527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -4544,7 +4547,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -4564,7 +4567,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -4584,7 +4587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -4604,7 +4607,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -4624,7 +4627,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -4644,7 +4647,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -4664,7 +4667,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -4684,7 +4687,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -4704,7 +4707,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -4724,7 +4727,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -4744,7 +4747,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -4764,7 +4767,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -4784,7 +4787,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -4804,7 +4807,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -4824,7 +4827,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -4844,7 +4847,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -4864,7 +4867,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -4884,7 +4887,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -4904,7 +4907,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -4924,7 +4927,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -4944,7 +4947,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -4964,7 +4967,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -4984,7 +4987,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -5004,7 +5007,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -5024,7 +5027,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -5044,7 +5047,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>130</v>
       </c>
@@ -5064,7 +5067,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -5084,7 +5087,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -5104,7 +5107,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -5124,7 +5127,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>142</v>
       </c>
@@ -5144,7 +5147,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -5164,7 +5167,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>148</v>
       </c>
@@ -5184,7 +5187,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -5204,7 +5207,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>154</v>
       </c>
@@ -5224,7 +5227,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>157</v>
       </c>
@@ -5244,7 +5247,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>160</v>
       </c>
@@ -5264,7 +5267,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -5284,7 +5287,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -5304,7 +5307,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -5324,7 +5327,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>172</v>
       </c>
@@ -5344,7 +5347,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>175</v>
       </c>
@@ -5364,7 +5367,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>178</v>
       </c>
@@ -5384,7 +5387,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -5404,7 +5407,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>184</v>
       </c>
@@ -5424,7 +5427,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>187</v>
       </c>
@@ -5444,7 +5447,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>190</v>
       </c>
@@ -5464,7 +5467,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>193</v>
       </c>
@@ -5484,7 +5487,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>196</v>
       </c>
@@ -5504,7 +5507,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>199</v>
       </c>
@@ -5524,7 +5527,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>202</v>
       </c>
@@ -5544,7 +5547,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>205</v>
       </c>
@@ -5564,7 +5567,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>208</v>
       </c>
@@ -5584,7 +5587,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>211</v>
       </c>
@@ -5604,7 +5607,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>214</v>
       </c>
@@ -5624,7 +5627,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>217</v>
       </c>
@@ -5644,7 +5647,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>220</v>
       </c>
@@ -5664,7 +5667,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>223</v>
       </c>
@@ -5684,7 +5687,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>226</v>
       </c>
@@ -5704,7 +5707,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>229</v>
       </c>
@@ -5724,7 +5727,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>232</v>
       </c>
@@ -5744,7 +5747,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>235</v>
       </c>
@@ -5764,7 +5767,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>238</v>
       </c>
@@ -5784,7 +5787,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>241</v>
       </c>
@@ -5804,7 +5807,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>244</v>
       </c>
@@ -5824,7 +5827,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>247</v>
       </c>
@@ -5844,7 +5847,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>250</v>
       </c>
@@ -5864,7 +5867,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>253</v>
       </c>
@@ -5884,7 +5887,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>256</v>
       </c>
@@ -5904,7 +5907,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>259</v>
       </c>
@@ -5924,7 +5927,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>262</v>
       </c>
@@ -5944,7 +5947,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>265</v>
       </c>
@@ -5964,7 +5967,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>268</v>
       </c>
@@ -5984,7 +5987,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>271</v>
       </c>
@@ -6004,7 +6007,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>274</v>
       </c>
@@ -6024,7 +6027,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>277</v>
       </c>
@@ -6044,7 +6047,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>280</v>
       </c>
@@ -6064,7 +6067,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>283</v>
       </c>
@@ -6084,7 +6087,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>286</v>
       </c>
@@ -6104,7 +6107,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>289</v>
       </c>
@@ -6124,7 +6127,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>292</v>
       </c>
@@ -6144,7 +6147,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>295</v>
       </c>
@@ -6164,7 +6167,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>298</v>
       </c>
@@ -6184,7 +6187,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>301</v>
       </c>
@@ -6204,7 +6207,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>304</v>
       </c>
@@ -6224,7 +6227,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>307</v>
       </c>
@@ -6244,7 +6247,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>310</v>
       </c>
@@ -6264,7 +6267,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>313</v>
       </c>
@@ -6284,7 +6287,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>316</v>
       </c>
@@ -6304,7 +6307,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>319</v>
       </c>
@@ -6324,7 +6327,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>322</v>
       </c>
@@ -6344,7 +6347,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>325</v>
       </c>
@@ -6364,7 +6367,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>328</v>
       </c>
@@ -6384,7 +6387,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>331</v>
       </c>
@@ -6404,7 +6407,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>334</v>
       </c>
@@ -6424,7 +6427,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>337</v>
       </c>
@@ -6444,7 +6447,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>340</v>
       </c>
@@ -6464,7 +6467,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>343</v>
       </c>
@@ -6484,7 +6487,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>346</v>
       </c>
@@ -6504,7 +6507,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>349</v>
       </c>
@@ -6524,7 +6527,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>352</v>
       </c>
@@ -6544,7 +6547,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>355</v>
       </c>
@@ -6564,7 +6567,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>358</v>
       </c>
@@ -6584,7 +6587,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>361</v>
       </c>
@@ -6604,7 +6607,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>364</v>
       </c>
@@ -6624,7 +6627,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>367</v>
       </c>
@@ -6644,7 +6647,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>370</v>
       </c>
@@ -6664,7 +6667,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>373</v>
       </c>
@@ -6684,7 +6687,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>376</v>
       </c>
@@ -6704,7 +6707,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>379</v>
       </c>
@@ -6724,7 +6727,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>382</v>
       </c>
@@ -6744,7 +6747,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>385</v>
       </c>
@@ -6764,7 +6767,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>388</v>
       </c>
@@ -6922,7 +6925,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>406</v>
       </c>
@@ -6942,7 +6945,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>409</v>
       </c>
@@ -6962,7 +6965,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>412</v>
       </c>
@@ -6982,7 +6985,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>415</v>
       </c>
@@ -7002,7 +7005,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>418</v>
       </c>
@@ -7022,7 +7025,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>421</v>
       </c>
@@ -7042,7 +7045,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>424</v>
       </c>
@@ -7062,7 +7065,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>427</v>
       </c>
@@ -7082,7 +7085,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>430</v>
       </c>
@@ -7102,7 +7105,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>433</v>
       </c>
@@ -7122,7 +7125,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>436</v>
       </c>
@@ -7142,7 +7145,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>439</v>
       </c>
@@ -7162,7 +7165,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>442</v>
       </c>
@@ -7182,7 +7185,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>445</v>
       </c>
@@ -7202,7 +7205,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>448</v>
       </c>
@@ -7222,7 +7225,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>451</v>
       </c>
@@ -7242,7 +7245,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>454</v>
       </c>
@@ -7262,7 +7265,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>457</v>
       </c>
@@ -7282,7 +7285,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>460</v>
       </c>
@@ -7302,7 +7305,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>463</v>
       </c>
@@ -7322,7 +7325,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>466</v>
       </c>
@@ -7342,7 +7345,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>469</v>
       </c>
@@ -7362,7 +7365,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>472</v>
       </c>
@@ -7382,7 +7385,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>475</v>
       </c>
@@ -7402,7 +7405,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>478</v>
       </c>
@@ -7422,7 +7425,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>481</v>
       </c>
@@ -7442,7 +7445,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>484</v>
       </c>
@@ -7462,7 +7465,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>487</v>
       </c>
@@ -7482,7 +7485,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>490</v>
       </c>
@@ -7502,7 +7505,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>493</v>
       </c>
@@ -7522,7 +7525,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>495</v>
       </c>
@@ -7542,7 +7545,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>498</v>
       </c>
@@ -7562,12 +7565,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>501</v>
       </c>
       <c r="B167" t="s">
-        <v>502</v>
+        <v>1244</v>
       </c>
       <c r="C167">
         <v>8.5999999999999993E-2</v>
@@ -7582,7 +7585,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>504</v>
       </c>
@@ -7602,7 +7605,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>507</v>
       </c>
@@ -7622,7 +7625,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>510</v>
       </c>
@@ -7642,7 +7645,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>513</v>
       </c>
@@ -7662,7 +7665,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>516</v>
       </c>
@@ -7682,7 +7685,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>519</v>
       </c>
@@ -7702,7 +7705,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>522</v>
       </c>
@@ -7722,7 +7725,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>525</v>
       </c>
@@ -7742,7 +7745,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>528</v>
       </c>
@@ -7762,7 +7765,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>531</v>
       </c>
@@ -7782,7 +7785,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>534</v>
       </c>
@@ -7802,7 +7805,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>537</v>
       </c>
@@ -7822,7 +7825,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>540</v>
       </c>
@@ -7842,7 +7845,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>543</v>
       </c>
@@ -7908,7 +7911,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>551</v>
       </c>
@@ -7928,7 +7931,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>554</v>
       </c>
@@ -7948,7 +7951,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>557</v>
       </c>
@@ -7968,7 +7971,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>560</v>
       </c>
@@ -7988,7 +7991,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>563</v>
       </c>
@@ -8008,7 +8011,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>566</v>
       </c>
@@ -8028,7 +8031,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>569</v>
       </c>
@@ -8048,7 +8051,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>572</v>
       </c>
@@ -8068,7 +8071,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>575</v>
       </c>
@@ -8154,10 +8157,10 @@
         <v>584</v>
       </c>
       <c r="H195">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>585</v>
       </c>
@@ -8177,7 +8180,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>588</v>
       </c>
@@ -8197,7 +8200,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>591</v>
       </c>
@@ -8217,7 +8220,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>594</v>
       </c>
@@ -8330,7 +8333,7 @@
         <v>0.91192538000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>608</v>
       </c>
@@ -8350,7 +8353,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>611</v>
       </c>
@@ -8370,7 +8373,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>614</v>
       </c>
@@ -8390,7 +8393,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>617</v>
       </c>
@@ -8410,7 +8413,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>620</v>
       </c>
@@ -8430,7 +8433,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>623</v>
       </c>
@@ -8450,7 +8453,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>626</v>
       </c>
@@ -8470,7 +8473,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>629</v>
       </c>
@@ -8490,7 +8493,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>632</v>
       </c>
@@ -8510,7 +8513,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>635</v>
       </c>
@@ -8530,7 +8533,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>638</v>
       </c>
@@ -8550,7 +8553,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>641</v>
       </c>
@@ -8570,7 +8573,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>644</v>
       </c>
@@ -8590,7 +8593,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>647</v>
       </c>
@@ -8610,7 +8613,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>650</v>
       </c>
@@ -8630,7 +8633,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>653</v>
       </c>
@@ -8650,7 +8653,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>656</v>
       </c>
@@ -8670,7 +8673,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>659</v>
       </c>
@@ -8690,7 +8693,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>662</v>
       </c>
@@ -8710,7 +8713,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>665</v>
       </c>
@@ -8730,7 +8733,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>668</v>
       </c>
@@ -8750,7 +8753,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>671</v>
       </c>
@@ -8770,7 +8773,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>674</v>
       </c>
@@ -8790,7 +8793,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>677</v>
       </c>
@@ -8810,7 +8813,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>680</v>
       </c>
@@ -8830,7 +8833,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>683</v>
       </c>
@@ -8850,7 +8853,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>686</v>
       </c>
@@ -8870,7 +8873,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>689</v>
       </c>
@@ -8890,7 +8893,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>692</v>
       </c>
@@ -8910,7 +8913,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>695</v>
       </c>
@@ -8930,7 +8933,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>698</v>
       </c>
@@ -8950,7 +8953,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>701</v>
       </c>
@@ -8970,7 +8973,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>704</v>
       </c>
@@ -8990,7 +8993,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>707</v>
       </c>
@@ -9010,7 +9013,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>710</v>
       </c>
@@ -9030,7 +9033,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>713</v>
       </c>
@@ -9050,7 +9053,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>716</v>
       </c>
@@ -9070,7 +9073,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>719</v>
       </c>
@@ -9090,7 +9093,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>722</v>
       </c>
@@ -9110,7 +9113,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>725</v>
       </c>
@@ -9130,7 +9133,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>728</v>
       </c>
@@ -9150,7 +9153,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>731</v>
       </c>
@@ -9170,7 +9173,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>734</v>
       </c>
@@ -9190,7 +9193,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>737</v>
       </c>
@@ -9210,7 +9213,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>740</v>
       </c>
@@ -9230,7 +9233,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>743</v>
       </c>
@@ -9250,7 +9253,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>746</v>
       </c>
@@ -9270,7 +9273,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>749</v>
       </c>
@@ -9290,7 +9293,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>752</v>
       </c>
@@ -9310,7 +9313,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>755</v>
       </c>
@@ -9330,7 +9333,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>758</v>
       </c>
@@ -9350,7 +9353,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>761</v>
       </c>
@@ -9370,7 +9373,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>764</v>
       </c>
@@ -9390,7 +9393,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>767</v>
       </c>
@@ -9410,7 +9413,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>770</v>
       </c>
@@ -9430,7 +9433,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>773</v>
       </c>
@@ -9450,7 +9453,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>776</v>
       </c>
@@ -9470,7 +9473,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>779</v>
       </c>
@@ -9559,7 +9562,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>791</v>
       </c>
@@ -9579,7 +9582,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>794</v>
       </c>
@@ -9599,7 +9602,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>797</v>
       </c>
@@ -9619,7 +9622,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>800</v>
       </c>
@@ -9984,7 +9987,7 @@
         <v>695000</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>838</v>
       </c>
@@ -10004,7 +10007,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>841</v>
       </c>
@@ -10024,7 +10027,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>844</v>
       </c>
@@ -10113,7 +10116,7 @@
         <v>54.47</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>854</v>
       </c>
@@ -10153,7 +10156,7 @@
         <v>859</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
@@ -10176,7 +10179,7 @@
         <v>859</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
@@ -10199,7 +10202,7 @@
         <v>864</v>
       </c>
       <c r="H293">
-        <v>1.25</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -10616,7 +10619,7 @@
         <v>302.82</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>911</v>
       </c>
@@ -10636,7 +10639,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>914</v>
       </c>
@@ -10656,7 +10659,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>917</v>
       </c>
@@ -10768,7 +10771,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>931</v>
       </c>
@@ -10788,7 +10791,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>934</v>
       </c>
@@ -10808,7 +10811,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>937</v>
       </c>
@@ -10828,7 +10831,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>940</v>
       </c>
@@ -10848,7 +10851,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>943</v>
       </c>
@@ -10868,7 +10871,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>946</v>
       </c>
@@ -10888,7 +10891,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>949</v>
       </c>
@@ -10908,7 +10911,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>952</v>
       </c>
@@ -10928,7 +10931,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>955</v>
       </c>
@@ -10948,7 +10951,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>958</v>
       </c>
@@ -10968,7 +10971,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>961</v>
       </c>
@@ -11008,7 +11011,7 @@
         <v>966</v>
       </c>
       <c r="H330">
-        <v>1.45</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
@@ -11195,7 +11198,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>990</v>
       </c>
@@ -11215,7 +11218,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>993</v>
       </c>
@@ -11235,7 +11238,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>996</v>
       </c>
@@ -11255,7 +11258,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>999</v>
       </c>
@@ -11275,7 +11278,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1002</v>
       </c>
@@ -11295,7 +11298,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1005</v>
       </c>
@@ -11315,7 +11318,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1008</v>
       </c>
@@ -11335,7 +11338,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1011</v>
       </c>
@@ -11355,7 +11358,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1014</v>
       </c>
@@ -11375,7 +11378,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1017</v>
       </c>
@@ -11625,7 +11628,7 @@
         <v>204000</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1047</v>
       </c>
@@ -11644,8 +11647,11 @@
       <c r="F359" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H359">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1050</v>
       </c>
@@ -11664,8 +11670,11 @@
       <c r="F360" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H360">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1052</v>
       </c>
@@ -11684,8 +11693,11 @@
       <c r="F361" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H361">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1054</v>
       </c>
@@ -11704,8 +11716,11 @@
       <c r="F362" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H362">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1056</v>
       </c>
@@ -11724,8 +11739,11 @@
       <c r="F363" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H363">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1059</v>
       </c>
@@ -11744,8 +11762,11 @@
       <c r="F364" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H364">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1062</v>
       </c>
@@ -11764,8 +11785,11 @@
       <c r="F365" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H365">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1065</v>
       </c>
@@ -11781,11 +11805,14 @@
       <c r="E366">
         <v>11</v>
       </c>
-      <c r="F366" t="s">
+      <c r="F366" s="2" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H366">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1068</v>
       </c>
@@ -11804,8 +11831,11 @@
       <c r="F367" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H367">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1071</v>
       </c>
@@ -11824,8 +11854,11 @@
       <c r="F368" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H368">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1073</v>
       </c>
@@ -11844,8 +11877,11 @@
       <c r="F369" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H369">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1076</v>
       </c>
@@ -11864,8 +11900,11 @@
       <c r="F370" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H370">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1078</v>
       </c>
@@ -11883,6 +11922,9 @@
       </c>
       <c r="F371" t="s">
         <v>1049</v>
+      </c>
+      <c r="H371">
+        <v>65</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
@@ -12023,7 +12065,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1098</v>
       </c>
@@ -12043,7 +12085,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1101</v>
       </c>
@@ -12063,7 +12105,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1104</v>
       </c>
@@ -12083,7 +12125,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1107</v>
       </c>
@@ -12103,7 +12145,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1110</v>
       </c>
@@ -12123,7 +12165,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1113</v>
       </c>
@@ -12143,7 +12185,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1116</v>
       </c>
@@ -12163,7 +12205,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1119</v>
       </c>
@@ -12183,7 +12225,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1122</v>
       </c>
@@ -12203,7 +12245,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1125</v>
       </c>
@@ -12223,7 +12265,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1128</v>
       </c>
@@ -12243,7 +12285,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1131</v>
       </c>
@@ -12263,7 +12305,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1134</v>
       </c>
@@ -12283,7 +12325,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1137</v>
       </c>
@@ -12303,7 +12345,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1140</v>
       </c>
@@ -12323,7 +12365,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1143</v>
       </c>
@@ -12343,7 +12385,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1146</v>
       </c>
@@ -12363,7 +12405,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1149</v>
       </c>
@@ -12383,7 +12425,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1152</v>
       </c>
@@ -12403,7 +12445,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1155</v>
       </c>
@@ -12423,7 +12465,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1158</v>
       </c>
@@ -12443,7 +12485,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1161</v>
       </c>
@@ -12671,18 +12713,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H408" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H408" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="F202" r:id="rId1" xr:uid="{005C5ACF-038B-4E11-B9EB-587D424446D9}"/>
+    <hyperlink ref="F366" r:id="rId2" display="https://getir.com/yemek/restoran/domino-s-pizza-merkez-carsi-mah-merkez-elazig/?gad_source=1&amp;gad_campaignid=22356128603&amp;gbraid=0AAAAADhUyRux3vnpCubU1uQGUZujwN4Hp&amp;gclid=CjwKCAiAlfvIBhA6EiwAcErpyYkZaR8wus-m5A6HK-FUVpTckwm5VrzyYQ6b52cUYhsiXE6RbV9F7hoCUskQAvD_BwE" xr:uid="{62AB1686-3802-44AF-90D6-AE7E73BAEE8F}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri,Regular"&amp;09&amp;B&amp;K0000FFKurum İçi Sınırsız Kullanım&amp;K000000 / &amp;KC00000Kişisel Veri</oddHeader>
     <evenHeader>&amp;L&amp;"Calibri,Regular"&amp;09&amp;B&amp;K0000FFKurum İçi Sınırsız Kullanım&amp;K000000 / &amp;KC00000Kişisel Veri</evenHeader>
@@ -19675,7 +19712,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C56DD748-AB70-4F20-B5C2-1237E7C603F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD9B8152-24EE-4CF3-AB46-ED57B2A4F591}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/TUFE_Konfigurasyon.xlsx
+++ b/TUFE_Konfigurasyon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\vb41981\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C880BEE3-42ED-444C-B68B-264BAAF0ED1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ADE2BE-6CA9-4E61-A6E0-F84AEC0FFC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20052" yWindow="-420" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Madde_Sepeti" sheetId="1" r:id="rId1"/>
@@ -3772,7 +3772,7 @@
     <t>&lt;td&gt;40 TL&lt;/td&gt;</t>
   </si>
   <si>
-    <t>V</t>
+    <t>Kazak (Çocuk İçin)</t>
   </si>
 </sst>
 </file>
@@ -3780,7 +3780,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -3877,7 +3877,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3897,6 +3897,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -4206,8 +4207,8 @@
   </sheetPr>
   <dimension ref="A1:I408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H201" sqref="H201"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4219,6 +4220,7 @@
     <col min="6" max="6" width="76.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -9934,7 +9936,7 @@
       <c r="E281">
         <v>7</v>
       </c>
-      <c r="F281" t="s">
+      <c r="F281" s="2" t="s">
         <v>831</v>
       </c>
       <c r="H281">
@@ -9957,7 +9959,7 @@
       <c r="E282">
         <v>7</v>
       </c>
-      <c r="F282" t="s">
+      <c r="F282" s="2" t="s">
         <v>834</v>
       </c>
       <c r="H282">
@@ -10066,8 +10068,8 @@
       <c r="F287" t="s">
         <v>849</v>
       </c>
-      <c r="H287">
-        <v>53.06</v>
+      <c r="H287" s="9">
+        <v>54.1</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
@@ -10090,7 +10092,7 @@
         <v>849</v>
       </c>
       <c r="H288">
-        <v>29.03</v>
+        <v>29.29</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
@@ -10113,7 +10115,7 @@
         <v>849</v>
       </c>
       <c r="H289">
-        <v>54.47</v>
+        <v>57.34</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
@@ -12717,9 +12719,11 @@
   <hyperlinks>
     <hyperlink ref="F202" r:id="rId1" xr:uid="{005C5ACF-038B-4E11-B9EB-587D424446D9}"/>
     <hyperlink ref="F366" r:id="rId2" display="https://getir.com/yemek/restoran/domino-s-pizza-merkez-carsi-mah-merkez-elazig/?gad_source=1&amp;gad_campaignid=22356128603&amp;gbraid=0AAAAADhUyRux3vnpCubU1uQGUZujwN4Hp&amp;gclid=CjwKCAiAlfvIBhA6EiwAcErpyYkZaR8wus-m5A6HK-FUVpTckwm5VrzyYQ6b52cUYhsiXE6RbV9F7hoCUskQAvD_BwE" xr:uid="{62AB1686-3802-44AF-90D6-AE7E73BAEE8F}"/>
+    <hyperlink ref="F282" r:id="rId3" xr:uid="{8FE65346-063D-45B0-9C8F-C25FB2D01BBC}"/>
+    <hyperlink ref="F281" r:id="rId4" xr:uid="{5AC76BF6-C176-4ABE-91B1-5C7C0155CB08}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri,Regular"&amp;09&amp;B&amp;K0000FFKurum İçi Sınırsız Kullanım&amp;K000000 / &amp;KC00000Kişisel Veri</oddHeader>
     <evenHeader>&amp;L&amp;"Calibri,Regular"&amp;09&amp;B&amp;K0000FFKurum İçi Sınırsız Kullanım&amp;K000000 / &amp;KC00000Kişisel Veri</evenHeader>
@@ -19712,7 +19716,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD9B8152-24EE-4CF3-AB46-ED57B2A4F591}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8944A1A5-D25C-438E-A8D5-8480D64F3C12}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
